--- a/mbs-perturbation/nano/elm/nearmiss/nano_elm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/nano/elm/nearmiss/nano_elm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.09523809523809525</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6016746411483254</v>
+        <v>0.4390581717451524</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.4944598337950138</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6516290726817042</v>
+        <v>0.6163434903047091</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7268170426065163</v>
+        <v>0.6735294117647059</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5378787878787878</v>
+        <v>0.6323529411764706</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8254761904761905</v>
+        <v>0.7523809523809525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3787742082478924</v>
+        <v>0.2451393188854489</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5079144511402577</v>
+        <v>0.3641237989064076</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6407427660059239</v>
+        <v>0.5711487697572104</v>
       </c>
     </row>
   </sheetData>
